--- a/Documentation/Talents.xlsx
+++ b/Documentation/Talents.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
-    <sheet name="Talents" sheetId="2" r:id="rId2"/>
-    <sheet name="Abilities" sheetId="3" r:id="rId3"/>
+    <sheet name="Spiders" sheetId="4" r:id="rId2"/>
+    <sheet name="Talents" sheetId="2" r:id="rId3"/>
+    <sheet name="Abilities" sheetId="3" r:id="rId4"/>
+    <sheet name="Items" sheetId="5" r:id="rId5"/>
+    <sheet name="Other requirements" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>Level system</t>
   </si>
@@ -174,9 +177,6 @@
     <t>0/3 Increase critical damage to 3/4/5</t>
   </si>
   <si>
-    <t xml:space="preserve">0/7 Gives you a chance to deal critical damage (6/12/18/24/30/36/42%) </t>
-  </si>
-  <si>
     <t>Enrage</t>
   </si>
   <si>
@@ -237,12 +237,6 @@
     <t>Reset all cooldowns</t>
   </si>
   <si>
-    <t>0/5 Increases arrow count to 5/6/7/8/9 but increase cost to 60/70/80/90/100</t>
-  </si>
-  <si>
-    <t>Shot by 4 random arrows. Damage cannot be critical</t>
-  </si>
-  <si>
     <t>0/3 Reduces heal cost by 20/40/60</t>
   </si>
   <si>
@@ -264,19 +258,115 @@
     <t>0/6 Increase your HP regeneration after healing for 10/20/30/40/50/60 HP for 30s</t>
   </si>
   <si>
-    <t>0/2 Increase HP regeneration and heal by 40/80% after spider's hit for 5s</t>
-  </si>
-  <si>
     <t>0/3 Increase Energy regeneration by 10/20/30% after spider's hit for 5s</t>
   </si>
   <si>
-    <t>0/5 Whenever you kill a spider you restore 1/2/3/4/5 Energy. Talent has 1s cooldown</t>
-  </si>
-  <si>
-    <t>0/8 Whenever you kill a spider you restore 2/4/6/8/10/12/14/16 HP. Talent has 0.5s cooldown.</t>
-  </si>
-  <si>
-    <t>0/1 Removes cooldowns for previous talents</t>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Fast spider</t>
+  </si>
+  <si>
+    <t>Frequency start</t>
+  </si>
+  <si>
+    <t>Frequency 100lvl</t>
+  </si>
+  <si>
+    <t>Frequency 50lvl</t>
+  </si>
+  <si>
+    <t>Frequency 150lvl</t>
+  </si>
+  <si>
+    <t>Strong spider</t>
+  </si>
+  <si>
+    <t>Armored spider</t>
+  </si>
+  <si>
+    <t>Heavy armored spider</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Poisonous spider</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>black normal</t>
+  </si>
+  <si>
+    <t>black small</t>
+  </si>
+  <si>
+    <t>green normal</t>
+  </si>
+  <si>
+    <t>black big</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Amulet</t>
+  </si>
+  <si>
+    <t>0/8 Whenever you kill a spider you restore 2/4/6/8/10/12/14/16 HP</t>
+  </si>
+  <si>
+    <t>0/5 Whenever you kill a spider you restore 1/2/3/4/5 Energy</t>
+  </si>
+  <si>
+    <t>0/1 Whenever you kill a spider you remove 0.05s from the timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0/7 Gives you a chance to deal critical damage (4/8/12/16/20/24/28%) </t>
+  </si>
+  <si>
+    <t>0/2 Increase HP regeneration and heal by 40/80% as well as reduce damage taken by 15/30% after spider's hit for 5s</t>
+  </si>
+  <si>
+    <t>Shot by all 9 arrows. Damage cannot be critical</t>
+  </si>
+  <si>
+    <t>0/5 Reduce Multishot cost by 40/80/120/160/200 energy</t>
+  </si>
+  <si>
+    <t>Level saves:</t>
+  </si>
+  <si>
+    <t>1) If player completes level+3'th level</t>
+  </si>
+  <si>
+    <t>2) If player completes level:</t>
+  </si>
+  <si>
+    <t>without using Time Killer and Reset Cooldown abilities</t>
+  </si>
+  <si>
+    <t>with more than 50% HP</t>
   </si>
 </sst>
 </file>
@@ -318,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -327,6 +417,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <f>19+A5*2</f>
+        <f t="shared" ref="B5:B10" si="0">19+A5*2</f>
         <v>21</v>
       </c>
       <c r="C5">
@@ -676,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <f>19+A6*2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C6">
@@ -699,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <f>19+A7*2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C7">
@@ -710,7 +801,7 @@
         <v>180</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E70" si="0">E6*1.025+1.5</f>
+        <f t="shared" ref="E7:E70" si="1">E6*1.025+1.5</f>
         <v>6.1893749999999992</v>
       </c>
       <c r="F7">
@@ -722,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <f>19+A8*2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C8">
@@ -733,7 +824,7 @@
         <v>220</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8441093749999986</v>
       </c>
       <c r="F8">
@@ -745,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <f>19+A9*2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C9">
@@ -756,7 +847,7 @@
         <v>260</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5402121093749983</v>
       </c>
       <c r="F9">
@@ -768,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <f>19+A10*2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C10">
@@ -779,7 +870,7 @@
         <v>300</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.278717412109373</v>
       </c>
       <c r="F10">
@@ -791,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B74" si="1">19+A11*2</f>
+        <f t="shared" ref="B11:B74" si="2">19+A11*2</f>
         <v>33</v>
       </c>
       <c r="C11">
@@ -802,7 +893,7 @@
         <v>300</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.060685347412106</v>
       </c>
       <c r="F11">
@@ -814,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="C12">
@@ -825,7 +916,7 @@
         <v>300</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.887202481097408</v>
       </c>
       <c r="F12">
@@ -837,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="C13">
@@ -848,7 +939,7 @@
         <v>300</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.759382543124843</v>
       </c>
       <c r="F13">
@@ -860,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="C14">
@@ -871,7 +962,7 @@
         <v>300</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.678367106702964</v>
       </c>
       <c r="F14">
@@ -883,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="C15">
@@ -895,7 +986,7 @@
         <v>377</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.645326284370537</v>
       </c>
       <c r="F15">
@@ -907,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="C16">
@@ -915,11 +1006,11 @@
         <v>6.4</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D79" si="2">300+7*A16</f>
+        <f t="shared" ref="D16:D79" si="3">300+7*A16</f>
         <v>384</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.661459441479799</v>
       </c>
       <c r="F16">
@@ -931,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="C17">
@@ -939,11 +1030,11 @@
         <v>7.15</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>391</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.72799592751679</v>
       </c>
       <c r="F17">
@@ -955,7 +1046,7 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C18">
@@ -963,11 +1054,11 @@
         <v>7.9333333333333336</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>398</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.846195825704708</v>
       </c>
       <c r="F18">
@@ -979,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="C19">
@@ -987,11 +1078,11 @@
         <v>8.75</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.017350721347324</v>
       </c>
       <c r="F19">
@@ -1003,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="C20">
@@ -1011,11 +1102,11 @@
         <v>9.6</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>412</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.242784489381005</v>
       </c>
       <c r="F20">
@@ -1027,7 +1118,7 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="C21">
@@ -1035,11 +1126,11 @@
         <v>10.483333333333333</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>419</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.523854101615527</v>
       </c>
       <c r="F21">
@@ -1051,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="C22">
@@ -1059,11 +1150,11 @@
         <v>11.4</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>426</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.86195045415591</v>
       </c>
       <c r="F22">
@@ -1075,7 +1166,7 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="C23">
@@ -1083,11 +1174,11 @@
         <v>12.35</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>433</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.258499215509801</v>
       </c>
       <c r="F23">
@@ -1099,7 +1190,7 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="C24">
@@ -1107,11 +1198,11 @@
         <v>13.333333333333334</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.714961695897543</v>
       </c>
       <c r="F24">
@@ -1123,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="C25">
@@ -1131,11 +1222,11 @@
         <v>14.35</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>447</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.23283573829498</v>
       </c>
       <c r="F25">
@@ -1147,7 +1238,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="C26">
@@ -1155,11 +1246,11 @@
         <v>15.4</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>454</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.813656631752352</v>
       </c>
       <c r="F26">
@@ -1171,7 +1262,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="C27">
@@ -1179,11 +1270,11 @@
         <v>16.483333333333334</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>461</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.458998047546153</v>
       </c>
       <c r="F27">
@@ -1195,7 +1286,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="C28">
@@ -1203,11 +1294,11 @@
         <v>17.600000000000001</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>468</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.170472998734802</v>
       </c>
       <c r="F28">
@@ -1219,7 +1310,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="C29">
@@ -1227,11 +1318,11 @@
         <v>18.75</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>475</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.949734823703167</v>
       </c>
       <c r="F29">
@@ -1243,7 +1334,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="C30">
@@ -1251,11 +1342,11 @@
         <v>19.933333333333334</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>482</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.79847819429574</v>
       </c>
       <c r="F30">
@@ -1267,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="C31">
@@ -1275,11 +1366,11 @@
         <v>21.15</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>489</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.718440149153125</v>
       </c>
       <c r="F31">
@@ -1291,7 +1382,7 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="C32">
@@ -1299,11 +1390,11 @@
         <v>22.4</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>496</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.711401152881947</v>
       </c>
       <c r="F32">
@@ -1315,7 +1406,7 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="C33">
@@ -1323,11 +1414,11 @@
         <v>23.683333333333334</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>503</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.779186181703992</v>
       </c>
       <c r="F33">
@@ -1339,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="C34">
@@ -1347,11 +1438,11 @@
         <v>25</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>510</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.923665836246585</v>
       </c>
       <c r="F34">
@@ -1363,7 +1454,7 @@
         <v>31</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="C35">
@@ -1371,11 +1462,11 @@
         <v>26.35</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>517</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.146757482152736</v>
       </c>
       <c r="F35">
@@ -1387,7 +1478,7 @@
         <v>32</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="C36">
@@ -1395,11 +1486,11 @@
         <v>27.733333333333334</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>524</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.450426419206551</v>
       </c>
       <c r="F36">
@@ -1411,7 +1502,7 @@
         <v>33</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="C37">
@@ -1419,11 +1510,11 @@
         <v>29.15</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>531</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.836687079686712</v>
       </c>
       <c r="F37">
@@ -1435,7 +1526,7 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="C38">
@@ -1443,11 +1534,11 @@
         <v>30.6</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>538</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82.307604256678871</v>
       </c>
       <c r="F38">
@@ -1459,7 +1550,7 @@
         <v>35</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="C39">
@@ -1467,11 +1558,11 @@
         <v>32.083333333333336</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>545</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85.865294363095842</v>
       </c>
       <c r="F39">
@@ -1483,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="C40">
@@ -1491,11 +1582,11 @@
         <v>33.6</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>552</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.511926722173229</v>
       </c>
       <c r="F40">
@@ -1507,7 +1598,7 @@
         <v>37</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C41">
@@ -1515,11 +1606,11 @@
         <v>35.15</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>559</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.249724890227554</v>
       </c>
       <c r="F41">
@@ -1531,7 +1622,7 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="C42">
@@ -1539,11 +1630,11 @@
         <v>36.733333333333334</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>566</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.08096801248324</v>
       </c>
       <c r="F42">
@@ -1555,7 +1646,7 @@
         <v>39</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="C43">
@@ -1563,11 +1654,11 @@
         <v>38.35</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>573</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101.00799221279532</v>
       </c>
       <c r="F43">
@@ -1579,7 +1670,7 @@
         <v>40</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="C44">
@@ -1587,11 +1678,11 @@
         <v>40</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105.03319201811519</v>
       </c>
       <c r="F44">
@@ -1604,7 +1695,7 @@
         <v>41</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="C45">
@@ -1612,15 +1703,15 @@
         <v>41.68333333333333</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>587</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.15902181856806</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F108" si="3">600+A45*10</f>
+        <f t="shared" ref="F45:F108" si="4">600+A45*10</f>
         <v>1010</v>
       </c>
     </row>
@@ -1629,7 +1720,7 @@
         <v>42</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="C46">
@@ -1637,15 +1728,15 @@
         <v>43.4</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>594</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113.38799736403226</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1020</v>
       </c>
     </row>
@@ -1654,7 +1745,7 @@
         <v>43</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="C47">
@@ -1662,15 +1753,15 @@
         <v>45.15</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>601</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117.72269729813306</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1030</v>
       </c>
     </row>
@@ -1679,7 +1770,7 @@
         <v>44</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="C48">
@@ -1687,15 +1778,15 @@
         <v>46.93333333333333</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>608</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122.16576473058637</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1040</v>
       </c>
     </row>
@@ -1704,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="C49">
@@ -1712,15 +1803,15 @@
         <v>48.75</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>615</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126.71990884885102</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1050</v>
       </c>
     </row>
@@ -1729,7 +1820,7 @@
         <v>46</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="C50">
@@ -1737,15 +1828,15 @@
         <v>50.6</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>622</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131.38790657007229</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1060</v>
       </c>
     </row>
@@ -1754,7 +1845,7 @@
         <v>47</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="C51">
@@ -1762,15 +1853,15 @@
         <v>52.483333333333334</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>629</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>136.1726042343241</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1070</v>
       </c>
     </row>
@@ -1779,7 +1870,7 @@
         <v>48</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="C52">
@@ -1787,15 +1878,15 @@
         <v>54.4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>636</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>141.0769193401822</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
     </row>
@@ -1804,7 +1895,7 @@
         <v>49</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="C53">
@@ -1812,15 +1903,15 @@
         <v>56.35</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>643</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>146.10384232368673</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1090</v>
       </c>
     </row>
@@ -1829,7 +1920,7 @@
         <v>50</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="C54">
@@ -1837,15 +1928,15 @@
         <v>58.333333333333336</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>650</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151.25643838177888</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1100</v>
       </c>
     </row>
@@ -1854,7 +1945,7 @@
         <v>51</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="C55">
@@ -1862,15 +1953,15 @@
         <v>60.35</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>657</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156.53784934132332</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1110</v>
       </c>
     </row>
@@ -1879,7 +1970,7 @@
         <v>52</v>
       </c>
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="C56">
@@ -1887,15 +1978,15 @@
         <v>62.4</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>664</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>161.9512955748564</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1120</v>
       </c>
     </row>
@@ -1904,7 +1995,7 @@
         <v>53</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="C57">
@@ -1912,15 +2003,15 @@
         <v>64.483333333333334</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>671</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>167.50007796422778</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1130</v>
       </c>
     </row>
@@ -1929,7 +2020,7 @@
         <v>54</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="C58">
@@ -1937,15 +2028,15 @@
         <v>66.599999999999994</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>678</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>173.18757991333345</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1140</v>
       </c>
     </row>
@@ -1954,7 +2045,7 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="C59">
@@ -1962,15 +2053,15 @@
         <v>68.75</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>685</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>179.01726941116678</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1150</v>
       </c>
     </row>
@@ -1979,7 +2070,7 @@
         <v>56</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="C60">
@@ -1987,15 +2078,15 @@
         <v>70.933333333333337</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>692</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>184.99270114644594</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1160</v>
       </c>
     </row>
@@ -2004,7 +2095,7 @@
         <v>57</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="C61">
@@ -2012,15 +2103,15 @@
         <v>73.150000000000006</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>699</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>191.11751867510708</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1170</v>
       </c>
     </row>
@@ -2029,7 +2120,7 @@
         <v>58</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="C62">
@@ -2037,15 +2128,15 @@
         <v>75.400000000000006</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>706</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>197.39545664198474</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1180</v>
       </c>
     </row>
@@ -2054,7 +2145,7 @@
         <v>59</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="C63">
@@ -2062,15 +2153,15 @@
         <v>77.683333333333337</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>713</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>203.83034305803434</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1190</v>
       </c>
     </row>
@@ -2079,7 +2170,7 @@
         <v>60</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="C64">
@@ -2087,15 +2178,15 @@
         <v>80</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210.42610163448518</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
     </row>
@@ -2104,7 +2195,7 @@
         <v>61</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="C65">
@@ -2112,15 +2203,15 @@
         <v>82.35</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>727</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>217.18675417534729</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1210</v>
       </c>
     </row>
@@ -2129,7 +2220,7 @@
         <v>62</v>
       </c>
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="C66">
@@ -2137,15 +2228,15 @@
         <v>84.733333333333334</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>734</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224.11642302973095</v>
       </c>
       <c r="F66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1220</v>
       </c>
     </row>
@@ -2154,7 +2245,7 @@
         <v>63</v>
       </c>
       <c r="B67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="C67">
@@ -2162,15 +2253,15 @@
         <v>87.15</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>741</v>
       </c>
       <c r="E67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231.21933360547422</v>
       </c>
       <c r="F67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1230</v>
       </c>
     </row>
@@ -2179,7 +2270,7 @@
         <v>64</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="C68">
@@ -2187,15 +2278,15 @@
         <v>89.6</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>748</v>
       </c>
       <c r="E68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>238.49981694561106</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1240</v>
       </c>
     </row>
@@ -2204,7 +2295,7 @@
         <v>65</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="C69">
@@ -2212,15 +2303,15 @@
         <v>92.083333333333329</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>755</v>
       </c>
       <c r="E69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>245.96231236925132</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
     </row>
@@ -2229,7 +2320,7 @@
         <v>66</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="C70">
@@ -2237,15 +2328,15 @@
         <v>94.6</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>762</v>
       </c>
       <c r="E70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>253.61137017848259</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1260</v>
       </c>
     </row>
@@ -2254,7 +2345,7 @@
         <v>67</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="C71">
@@ -2262,15 +2353,15 @@
         <v>97.15</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>769</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:E134" si="4">E70*1.025+1.5</f>
+        <f t="shared" ref="E71:E134" si="5">E70*1.025+1.5</f>
         <v>261.45165443294462</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1270</v>
       </c>
     </row>
@@ -2279,7 +2370,7 @@
         <v>68</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="C72">
@@ -2287,15 +2378,15 @@
         <v>99.733333333333334</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>776</v>
       </c>
       <c r="E72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>269.48794579376823</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1280</v>
       </c>
     </row>
@@ -2304,7 +2395,7 @@
         <v>69</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="C73">
@@ -2312,15 +2403,15 @@
         <v>102.35</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>783</v>
       </c>
       <c r="E73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>277.7251444386124</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1290</v>
       </c>
     </row>
@@ -2329,7 +2420,7 @@
         <v>70</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="C74">
@@ -2337,15 +2428,15 @@
         <v>105</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>790</v>
       </c>
       <c r="E74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>286.16827304957769</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1300</v>
       </c>
     </row>
@@ -2354,7 +2445,7 @@
         <v>71</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B138" si="5">19+A75*2</f>
+        <f t="shared" ref="B75:B138" si="6">19+A75*2</f>
         <v>161</v>
       </c>
       <c r="C75">
@@ -2362,15 +2453,15 @@
         <v>107.68333333333334</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>797</v>
       </c>
       <c r="E75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>294.82247987581712</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1310</v>
       </c>
     </row>
@@ -2379,7 +2470,7 @@
         <v>72</v>
       </c>
       <c r="B76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="C76">
@@ -2387,15 +2478,15 @@
         <v>110.4</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>804</v>
       </c>
       <c r="E76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>303.69304187271251</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1320</v>
       </c>
     </row>
@@ -2404,7 +2495,7 @@
         <v>73</v>
       </c>
       <c r="B77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="C77">
@@ -2412,15 +2503,15 @@
         <v>113.15</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>811</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>312.7853679195303</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1330</v>
       </c>
     </row>
@@ -2429,7 +2520,7 @@
         <v>74</v>
       </c>
       <c r="B78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>167</v>
       </c>
       <c r="C78">
@@ -2437,15 +2528,15 @@
         <v>115.93333333333334</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>818</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>322.10500211751855</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1340</v>
       </c>
     </row>
@@ -2454,7 +2545,7 @@
         <v>75</v>
       </c>
       <c r="B79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="C79">
@@ -2462,15 +2553,15 @@
         <v>118.75</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>825</v>
       </c>
       <c r="E79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>331.65762717045646</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1350</v>
       </c>
     </row>
@@ -2479,7 +2570,7 @@
         <v>76</v>
       </c>
       <c r="B80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="C80">
@@ -2487,15 +2578,15 @@
         <v>121.6</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80:D143" si="6">300+7*A80</f>
+        <f t="shared" ref="D80:D143" si="7">300+7*A80</f>
         <v>832</v>
       </c>
       <c r="E80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>341.44906784971784</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1360</v>
       </c>
     </row>
@@ -2504,7 +2595,7 @@
         <v>77</v>
       </c>
       <c r="B81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>173</v>
       </c>
       <c r="C81">
@@ -2512,15 +2603,15 @@
         <v>124.48333333333333</v>
       </c>
       <c r="D81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>839</v>
       </c>
       <c r="E81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>351.48529454596076</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1370</v>
       </c>
     </row>
@@ -2529,7 +2620,7 @@
         <v>78</v>
       </c>
       <c r="B82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="C82">
@@ -2537,15 +2628,15 @@
         <v>127.4</v>
       </c>
       <c r="D82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>846</v>
       </c>
       <c r="E82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>361.77242690960975</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1380</v>
       </c>
     </row>
@@ -2554,7 +2645,7 @@
         <v>79</v>
       </c>
       <c r="B83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="C83">
@@ -2562,15 +2653,15 @@
         <v>130.35</v>
       </c>
       <c r="D83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>853</v>
       </c>
       <c r="E83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>372.31673758234996</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1390</v>
       </c>
     </row>
@@ -2579,7 +2670,7 @@
         <v>80</v>
       </c>
       <c r="B84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
       <c r="C84">
@@ -2587,15 +2678,15 @@
         <v>133.33333333333334</v>
       </c>
       <c r="D84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>860</v>
       </c>
       <c r="E84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>383.12465602190866</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1400</v>
       </c>
     </row>
@@ -2604,7 +2695,7 @@
         <v>81</v>
       </c>
       <c r="B85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>181</v>
       </c>
       <c r="C85">
@@ -2612,15 +2703,15 @@
         <v>136.35</v>
       </c>
       <c r="D85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>867</v>
       </c>
       <c r="E85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>394.20277242245635</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1410</v>
       </c>
     </row>
@@ -2629,7 +2720,7 @@
         <v>82</v>
       </c>
       <c r="B86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="C86">
@@ -2637,15 +2728,15 @@
         <v>139.4</v>
       </c>
       <c r="D86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>874</v>
       </c>
       <c r="E86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>405.55784173301771</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1420</v>
       </c>
     </row>
@@ -2654,7 +2745,7 @@
         <v>83</v>
       </c>
       <c r="B87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="C87">
@@ -2662,15 +2753,15 @@
         <v>142.48333333333332</v>
       </c>
       <c r="D87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>881</v>
       </c>
       <c r="E87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>417.19678777634311</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1430</v>
       </c>
     </row>
@@ -2679,7 +2770,7 @@
         <v>84</v>
       </c>
       <c r="B88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="C88">
@@ -2687,15 +2778,15 @@
         <v>145.6</v>
       </c>
       <c r="D88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>888</v>
       </c>
       <c r="E88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>429.12670747075168</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1440</v>
       </c>
     </row>
@@ -2704,7 +2795,7 @@
         <v>85</v>
       </c>
       <c r="B89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="C89">
@@ -2712,15 +2803,15 @@
         <v>148.75</v>
       </c>
       <c r="D89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>895</v>
       </c>
       <c r="E89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>441.35487515752044</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1450</v>
       </c>
     </row>
@@ -2729,7 +2820,7 @@
         <v>86</v>
       </c>
       <c r="B90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
       <c r="C90">
@@ -2737,15 +2828,15 @@
         <v>151.93333333333334</v>
       </c>
       <c r="D90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>902</v>
       </c>
       <c r="E90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>453.88874703645843</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1460</v>
       </c>
     </row>
@@ -2754,7 +2845,7 @@
         <v>87</v>
       </c>
       <c r="B91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="C91">
@@ -2762,15 +2853,15 @@
         <v>155.15</v>
       </c>
       <c r="D91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>909</v>
       </c>
       <c r="E91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>466.73596571236982</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1470</v>
       </c>
     </row>
@@ -2779,7 +2870,7 @@
         <v>88</v>
       </c>
       <c r="B92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="C92">
@@ -2787,15 +2878,15 @@
         <v>158.4</v>
       </c>
       <c r="D92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>916</v>
       </c>
       <c r="E92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>479.90436485517904</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1480</v>
       </c>
     </row>
@@ -2804,7 +2895,7 @@
         <v>89</v>
       </c>
       <c r="B93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>197</v>
       </c>
       <c r="C93">
@@ -2812,15 +2903,15 @@
         <v>161.68333333333334</v>
       </c>
       <c r="D93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>923</v>
       </c>
       <c r="E93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>493.40197397655845</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1490</v>
       </c>
     </row>
@@ -2829,7 +2920,7 @@
         <v>90</v>
       </c>
       <c r="B94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>199</v>
       </c>
       <c r="C94">
@@ -2837,15 +2928,15 @@
         <v>165</v>
       </c>
       <c r="D94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>930</v>
       </c>
       <c r="E94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>507.23702332597236</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
     </row>
@@ -2854,7 +2945,7 @@
         <v>91</v>
       </c>
       <c r="B95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>201</v>
       </c>
       <c r="C95">
@@ -2862,15 +2953,15 @@
         <v>168.35</v>
       </c>
       <c r="D95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>937</v>
       </c>
       <c r="E95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>521.41794890912161</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1510</v>
       </c>
     </row>
@@ -2879,7 +2970,7 @@
         <v>92</v>
       </c>
       <c r="B96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="C96">
@@ -2887,15 +2978,15 @@
         <v>171.73333333333332</v>
       </c>
       <c r="D96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>944</v>
       </c>
       <c r="E96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>535.95339763184961</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1520</v>
       </c>
     </row>
@@ -2904,7 +2995,7 @@
         <v>93</v>
       </c>
       <c r="B97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>205</v>
       </c>
       <c r="C97">
@@ -2912,15 +3003,15 @@
         <v>175.15</v>
       </c>
       <c r="D97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>951</v>
       </c>
       <c r="E97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>550.85223257264579</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1530</v>
       </c>
     </row>
@@ -2929,7 +3020,7 @@
         <v>94</v>
       </c>
       <c r="B98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>207</v>
       </c>
       <c r="C98">
@@ -2937,15 +3028,15 @@
         <v>178.6</v>
       </c>
       <c r="D98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>958</v>
       </c>
       <c r="E98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>566.12353838696185</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1540</v>
       </c>
     </row>
@@ -2954,7 +3045,7 @@
         <v>95</v>
       </c>
       <c r="B99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>209</v>
       </c>
       <c r="C99">
@@ -2962,15 +3053,15 @@
         <v>182.08333333333334</v>
       </c>
       <c r="D99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>965</v>
       </c>
       <c r="E99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>581.77662684663585</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1550</v>
       </c>
     </row>
@@ -2979,7 +3070,7 @@
         <v>96</v>
       </c>
       <c r="B100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>211</v>
       </c>
       <c r="C100">
@@ -2987,15 +3078,15 @@
         <v>185.6</v>
       </c>
       <c r="D100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>972</v>
       </c>
       <c r="E100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>597.82104251780174</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1560</v>
       </c>
     </row>
@@ -3004,7 +3095,7 @@
         <v>97</v>
       </c>
       <c r="B101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>213</v>
       </c>
       <c r="C101">
@@ -3012,15 +3103,15 @@
         <v>189.15</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>979</v>
       </c>
       <c r="E101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>614.26656858074671</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1570</v>
       </c>
     </row>
@@ -3029,7 +3120,7 @@
         <v>98</v>
       </c>
       <c r="B102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="C102">
@@ -3037,15 +3128,15 @@
         <v>192.73333333333332</v>
       </c>
       <c r="D102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>986</v>
       </c>
       <c r="E102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>631.12323279526527</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1580</v>
       </c>
     </row>
@@ -3054,7 +3145,7 @@
         <v>99</v>
       </c>
       <c r="B103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>217</v>
       </c>
       <c r="C103">
@@ -3062,15 +3153,15 @@
         <v>196.35</v>
       </c>
       <c r="D103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>993</v>
       </c>
       <c r="E103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>648.40131361514682</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1590</v>
       </c>
     </row>
@@ -3079,7 +3170,7 @@
         <v>100</v>
       </c>
       <c r="B104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
       <c r="C104">
@@ -3087,7 +3178,7 @@
         <v>200</v>
       </c>
       <c r="D104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="E104">
@@ -3095,7 +3186,7 @@
         <v>666.11134645552545</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
     </row>
@@ -3104,7 +3195,7 @@
         <v>101</v>
       </c>
       <c r="B105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>221</v>
       </c>
       <c r="C105">
@@ -3112,15 +3203,15 @@
         <v>203.68333333333334</v>
       </c>
       <c r="D105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1007</v>
       </c>
       <c r="E105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>684.26413011691352</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1610</v>
       </c>
     </row>
@@ -3129,7 +3220,7 @@
         <v>102</v>
       </c>
       <c r="B106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>223</v>
       </c>
       <c r="C106">
@@ -3137,15 +3228,15 @@
         <v>207.4</v>
       </c>
       <c r="D106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1014</v>
       </c>
       <c r="E106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>702.87073336983633</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1620</v>
       </c>
     </row>
@@ -3154,7 +3245,7 @@
         <v>103</v>
       </c>
       <c r="B107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="C107">
@@ -3162,15 +3253,15 @@
         <v>211.15</v>
       </c>
       <c r="D107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1021</v>
       </c>
       <c r="E107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>721.94250170408213</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1630</v>
       </c>
     </row>
@@ -3179,7 +3270,7 @@
         <v>104</v>
       </c>
       <c r="B108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>227</v>
       </c>
       <c r="C108">
@@ -3187,15 +3278,15 @@
         <v>214.93333333333334</v>
       </c>
       <c r="D108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1028</v>
       </c>
       <c r="E108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>741.49106424668412</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1640</v>
       </c>
     </row>
@@ -3204,7 +3295,7 @@
         <v>105</v>
       </c>
       <c r="B109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>229</v>
       </c>
       <c r="C109">
@@ -3212,15 +3303,15 @@
         <v>218.75</v>
       </c>
       <c r="D109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1035</v>
       </c>
       <c r="E109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>761.5283408528511</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109:F154" si="7">600+A109*10</f>
+        <f t="shared" ref="F109:F154" si="8">600+A109*10</f>
         <v>1650</v>
       </c>
     </row>
@@ -3229,7 +3320,7 @@
         <v>106</v>
       </c>
       <c r="B110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>231</v>
       </c>
       <c r="C110">
@@ -3237,15 +3328,15 @@
         <v>222.6</v>
       </c>
       <c r="D110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1042</v>
       </c>
       <c r="E110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>782.06654937417227</v>
       </c>
       <c r="F110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1660</v>
       </c>
     </row>
@@ -3254,7 +3345,7 @@
         <v>107</v>
       </c>
       <c r="B111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>233</v>
       </c>
       <c r="C111">
@@ -3262,15 +3353,15 @@
         <v>226.48333333333332</v>
       </c>
       <c r="D111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1049</v>
       </c>
       <c r="E111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>803.11821310852656</v>
       </c>
       <c r="F111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1670</v>
       </c>
     </row>
@@ -3279,7 +3370,7 @@
         <v>108</v>
       </c>
       <c r="B112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>235</v>
       </c>
       <c r="C112">
@@ -3287,15 +3378,15 @@
         <v>230.4</v>
       </c>
       <c r="D112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1056</v>
       </c>
       <c r="E112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>824.69616843623965</v>
       </c>
       <c r="F112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1680</v>
       </c>
     </row>
@@ -3304,7 +3395,7 @@
         <v>109</v>
       </c>
       <c r="B113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>237</v>
       </c>
       <c r="C113">
@@ -3312,15 +3403,15 @@
         <v>234.35</v>
       </c>
       <c r="D113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1063</v>
       </c>
       <c r="E113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>846.81357264714552</v>
       </c>
       <c r="F113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1690</v>
       </c>
     </row>
@@ -3329,7 +3420,7 @@
         <v>110</v>
       </c>
       <c r="B114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>239</v>
       </c>
       <c r="C114">
@@ -3337,15 +3428,15 @@
         <v>238.33333333333334</v>
       </c>
       <c r="D114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1070</v>
       </c>
       <c r="E114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>869.48391196332409</v>
       </c>
       <c r="F114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1700</v>
       </c>
     </row>
@@ -3354,7 +3445,7 @@
         <v>111</v>
       </c>
       <c r="B115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>241</v>
       </c>
       <c r="C115">
@@ -3362,15 +3453,15 @@
         <v>242.35</v>
       </c>
       <c r="D115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1077</v>
       </c>
       <c r="E115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>892.72100976240711</v>
       </c>
       <c r="F115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1710</v>
       </c>
     </row>
@@ -3379,7 +3470,7 @@
         <v>112</v>
       </c>
       <c r="B116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
       <c r="C116">
@@ -3387,15 +3478,15 @@
         <v>246.4</v>
       </c>
       <c r="D116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1084</v>
       </c>
       <c r="E116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>916.5390350064672</v>
       </c>
       <c r="F116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1720</v>
       </c>
     </row>
@@ -3404,7 +3495,7 @@
         <v>113</v>
       </c>
       <c r="B117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>245</v>
       </c>
       <c r="C117">
@@ -3412,15 +3503,15 @@
         <v>250.48333333333332</v>
       </c>
       <c r="D117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1091</v>
       </c>
       <c r="E117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>940.95251088162877</v>
       </c>
       <c r="F117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1730</v>
       </c>
     </row>
@@ -3429,7 +3520,7 @@
         <v>114</v>
       </c>
       <c r="B118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>247</v>
       </c>
       <c r="C118">
@@ -3437,15 +3528,15 @@
         <v>254.6</v>
       </c>
       <c r="D118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1098</v>
       </c>
       <c r="E118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>965.9763236536694</v>
       </c>
       <c r="F118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1740</v>
       </c>
     </row>
@@ -3454,7 +3545,7 @@
         <v>115</v>
       </c>
       <c r="B119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>249</v>
       </c>
       <c r="C119">
@@ -3462,15 +3553,15 @@
         <v>258.75</v>
       </c>
       <c r="D119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1105</v>
       </c>
       <c r="E119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>991.62573174501108</v>
       </c>
       <c r="F119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1750</v>
       </c>
     </row>
@@ -3479,7 +3570,7 @@
         <v>116</v>
       </c>
       <c r="B120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>251</v>
       </c>
       <c r="C120">
@@ -3487,15 +3578,15 @@
         <v>262.93333333333334</v>
       </c>
       <c r="D120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1112</v>
       </c>
       <c r="E120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1017.9163750386363</v>
       </c>
       <c r="F120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1760</v>
       </c>
     </row>
@@ -3504,7 +3595,7 @@
         <v>117</v>
       </c>
       <c r="B121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>253</v>
       </c>
       <c r="C121">
@@ -3512,15 +3603,15 @@
         <v>267.14999999999998</v>
       </c>
       <c r="D121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1119</v>
       </c>
       <c r="E121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1044.864284414602</v>
       </c>
       <c r="F121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1770</v>
       </c>
     </row>
@@ -3529,7 +3620,7 @@
         <v>118</v>
       </c>
       <c r="B122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="C122">
@@ -3537,15 +3628,15 @@
         <v>271.39999999999998</v>
       </c>
       <c r="D122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1126</v>
       </c>
       <c r="E122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1072.485891524967</v>
       </c>
       <c r="F122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1780</v>
       </c>
     </row>
@@ -3554,7 +3645,7 @@
         <v>119</v>
       </c>
       <c r="B123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>257</v>
       </c>
       <c r="C123">
@@ -3562,15 +3653,15 @@
         <v>275.68333333333334</v>
       </c>
       <c r="D123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1133</v>
       </c>
       <c r="E123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1100.7980388130911</v>
       </c>
       <c r="F123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1790</v>
       </c>
     </row>
@@ -3579,7 +3670,7 @@
         <v>120</v>
       </c>
       <c r="B124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>259</v>
       </c>
       <c r="C124">
@@ -3587,15 +3678,15 @@
         <v>280</v>
       </c>
       <c r="D124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1140</v>
       </c>
       <c r="E124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1129.8179897834184</v>
       </c>
       <c r="F124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
     </row>
@@ -3604,7 +3695,7 @@
         <v>121</v>
       </c>
       <c r="B125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>261</v>
       </c>
       <c r="C125">
@@ -3612,15 +3703,15 @@
         <v>284.35000000000002</v>
       </c>
       <c r="D125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1147</v>
       </c>
       <c r="E125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1159.5634395280038</v>
       </c>
       <c r="F125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1810</v>
       </c>
     </row>
@@ -3629,7 +3720,7 @@
         <v>122</v>
       </c>
       <c r="B126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>263</v>
       </c>
       <c r="C126">
@@ -3637,15 +3728,15 @@
         <v>288.73333333333335</v>
       </c>
       <c r="D126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1154</v>
       </c>
       <c r="E126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1190.0525255162038</v>
       </c>
       <c r="F126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1820</v>
       </c>
     </row>
@@ -3654,7 +3745,7 @@
         <v>123</v>
       </c>
       <c r="B127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>265</v>
       </c>
       <c r="C127">
@@ -3662,15 +3753,15 @@
         <v>293.14999999999998</v>
       </c>
       <c r="D127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1161</v>
       </c>
       <c r="E127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1221.3038386541089</v>
       </c>
       <c r="F127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1830</v>
       </c>
     </row>
@@ -3679,7 +3770,7 @@
         <v>124</v>
       </c>
       <c r="B128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>267</v>
       </c>
       <c r="C128">
@@ -3687,15 +3778,15 @@
         <v>297.60000000000002</v>
       </c>
       <c r="D128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1168</v>
       </c>
       <c r="E128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1253.3364346204614</v>
       </c>
       <c r="F128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1840</v>
       </c>
     </row>
@@ -3704,7 +3795,7 @@
         <v>125</v>
       </c>
       <c r="B129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>269</v>
       </c>
       <c r="C129">
@@ -3712,15 +3803,15 @@
         <v>302.08333333333331</v>
       </c>
       <c r="D129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1175</v>
       </c>
       <c r="E129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1286.1698454859729</v>
       </c>
       <c r="F129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1850</v>
       </c>
     </row>
@@ -3729,7 +3820,7 @@
         <v>126</v>
       </c>
       <c r="B130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>271</v>
       </c>
       <c r="C130">
@@ -3737,15 +3828,15 @@
         <v>306.60000000000002</v>
       </c>
       <c r="D130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1182</v>
       </c>
       <c r="E130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1319.8240916231221</v>
       </c>
       <c r="F130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1860</v>
       </c>
     </row>
@@ -3754,7 +3845,7 @@
         <v>127</v>
       </c>
       <c r="B131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>273</v>
       </c>
       <c r="C131">
@@ -3762,15 +3853,15 @@
         <v>311.14999999999998</v>
       </c>
       <c r="D131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1189</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1354.3196939136999</v>
       </c>
       <c r="F131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1870</v>
       </c>
     </row>
@@ -3779,7 +3870,7 @@
         <v>128</v>
       </c>
       <c r="B132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>275</v>
       </c>
       <c r="C132">
@@ -3787,15 +3878,15 @@
         <v>315.73333333333335</v>
       </c>
       <c r="D132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1196</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1389.6776862615422</v>
       </c>
       <c r="F132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1880</v>
       </c>
     </row>
@@ -3804,7 +3895,7 @@
         <v>129</v>
       </c>
       <c r="B133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>277</v>
       </c>
       <c r="C133">
@@ -3812,15 +3903,15 @@
         <v>320.35000000000002</v>
       </c>
       <c r="D133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1203</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1425.9196284180807</v>
       </c>
       <c r="F133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1890</v>
       </c>
     </row>
@@ -3829,7 +3920,7 @@
         <v>130</v>
       </c>
       <c r="B134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>279</v>
       </c>
       <c r="C134">
@@ -3837,15 +3928,15 @@
         <v>325</v>
       </c>
       <c r="D134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1210</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1463.0676191285327</v>
       </c>
       <c r="F134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1900</v>
       </c>
     </row>
@@ -3854,7 +3945,7 @@
         <v>131</v>
       </c>
       <c r="B135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>281</v>
       </c>
       <c r="C135">
@@ -3862,15 +3953,15 @@
         <v>329.68333333333334</v>
       </c>
       <c r="D135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1217</v>
       </c>
       <c r="E135">
-        <f t="shared" ref="E135:E153" si="8">E134*1.025+1.5</f>
+        <f t="shared" ref="E135:E153" si="9">E134*1.025+1.5</f>
         <v>1501.1443096067458</v>
       </c>
       <c r="F135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1910</v>
       </c>
     </row>
@@ -3879,7 +3970,7 @@
         <v>132</v>
       </c>
       <c r="B136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>283</v>
       </c>
       <c r="C136">
@@ -3887,15 +3978,15 @@
         <v>334.4</v>
       </c>
       <c r="D136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1224</v>
       </c>
       <c r="E136">
+        <f t="shared" si="9"/>
+        <v>1540.1729173469143</v>
+      </c>
+      <c r="F136">
         <f t="shared" si="8"/>
-        <v>1540.1729173469143</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="7"/>
         <v>1920</v>
       </c>
     </row>
@@ -3904,7 +3995,7 @@
         <v>133</v>
       </c>
       <c r="B137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="C137">
@@ -3912,15 +4003,15 @@
         <v>339.15</v>
       </c>
       <c r="D137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1231</v>
       </c>
       <c r="E137">
+        <f t="shared" si="9"/>
+        <v>1580.1772402805871</v>
+      </c>
+      <c r="F137">
         <f t="shared" si="8"/>
-        <v>1580.1772402805871</v>
-      </c>
-      <c r="F137">
-        <f t="shared" si="7"/>
         <v>1930</v>
       </c>
     </row>
@@ -3929,7 +4020,7 @@
         <v>134</v>
       </c>
       <c r="B138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>287</v>
       </c>
       <c r="C138">
@@ -3937,15 +4028,15 @@
         <v>343.93333333333334</v>
       </c>
       <c r="D138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1238</v>
       </c>
       <c r="E138">
+        <f t="shared" si="9"/>
+        <v>1621.1816712876016</v>
+      </c>
+      <c r="F138">
         <f t="shared" si="8"/>
-        <v>1621.1816712876016</v>
-      </c>
-      <c r="F138">
-        <f t="shared" si="7"/>
         <v>1940</v>
       </c>
     </row>
@@ -3954,7 +4045,7 @@
         <v>135</v>
       </c>
       <c r="B139">
-        <f t="shared" ref="B139:B154" si="9">19+A139*2</f>
+        <f t="shared" ref="B139:B154" si="10">19+A139*2</f>
         <v>289</v>
       </c>
       <c r="C139">
@@ -3962,15 +4053,15 @@
         <v>348.75</v>
       </c>
       <c r="D139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1245</v>
       </c>
       <c r="E139">
+        <f t="shared" si="9"/>
+        <v>1663.2112130697915</v>
+      </c>
+      <c r="F139">
         <f t="shared" si="8"/>
-        <v>1663.2112130697915</v>
-      </c>
-      <c r="F139">
-        <f t="shared" si="7"/>
         <v>1950</v>
       </c>
     </row>
@@ -3979,7 +4070,7 @@
         <v>136</v>
       </c>
       <c r="B140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="C140">
@@ -3987,15 +4078,15 @@
         <v>353.6</v>
       </c>
       <c r="D140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1252</v>
       </c>
       <c r="E140">
+        <f t="shared" si="9"/>
+        <v>1706.2914933965362</v>
+      </c>
+      <c r="F140">
         <f t="shared" si="8"/>
-        <v>1706.2914933965362</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="7"/>
         <v>1960</v>
       </c>
     </row>
@@ -4004,7 +4095,7 @@
         <v>137</v>
       </c>
       <c r="B141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>293</v>
       </c>
       <c r="C141">
@@ -4012,15 +4103,15 @@
         <v>358.48333333333335</v>
       </c>
       <c r="D141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1259</v>
       </c>
       <c r="E141">
+        <f t="shared" si="9"/>
+        <v>1750.4487807314495</v>
+      </c>
+      <c r="F141">
         <f t="shared" si="8"/>
-        <v>1750.4487807314495</v>
-      </c>
-      <c r="F141">
-        <f t="shared" si="7"/>
         <v>1970</v>
       </c>
     </row>
@@ -4029,7 +4120,7 @@
         <v>138</v>
       </c>
       <c r="B142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>295</v>
       </c>
       <c r="C142">
@@ -4037,15 +4128,15 @@
         <v>363.4</v>
       </c>
       <c r="D142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1266</v>
       </c>
       <c r="E142">
+        <f t="shared" si="9"/>
+        <v>1795.7100002497355</v>
+      </c>
+      <c r="F142">
         <f t="shared" si="8"/>
-        <v>1795.7100002497355</v>
-      </c>
-      <c r="F142">
-        <f t="shared" si="7"/>
         <v>1980</v>
       </c>
     </row>
@@ -4054,7 +4145,7 @@
         <v>139</v>
       </c>
       <c r="B143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>297</v>
       </c>
       <c r="C143">
@@ -4062,15 +4153,15 @@
         <v>368.35</v>
       </c>
       <c r="D143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1273</v>
       </c>
       <c r="E143">
+        <f t="shared" si="9"/>
+        <v>1842.1027502559787</v>
+      </c>
+      <c r="F143">
         <f t="shared" si="8"/>
-        <v>1842.1027502559787</v>
-      </c>
-      <c r="F143">
-        <f t="shared" si="7"/>
         <v>1990</v>
       </c>
     </row>
@@ -4079,7 +4170,7 @@
         <v>140</v>
       </c>
       <c r="B144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>299</v>
       </c>
       <c r="C144">
@@ -4087,15 +4178,15 @@
         <v>373.33333333333331</v>
       </c>
       <c r="D144">
-        <f t="shared" ref="D144:D154" si="10">300+7*A144</f>
+        <f t="shared" ref="D144:D154" si="11">300+7*A144</f>
         <v>1280</v>
       </c>
       <c r="E144">
+        <f t="shared" si="9"/>
+        <v>1889.655319012378</v>
+      </c>
+      <c r="F144">
         <f t="shared" si="8"/>
-        <v>1889.655319012378</v>
-      </c>
-      <c r="F144">
-        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
     </row>
@@ -4104,7 +4195,7 @@
         <v>141</v>
       </c>
       <c r="B145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>301</v>
       </c>
       <c r="C145">
@@ -4112,15 +4203,15 @@
         <v>378.35</v>
       </c>
       <c r="D145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1287</v>
       </c>
       <c r="E145">
+        <f t="shared" si="9"/>
+        <v>1938.3967019876873</v>
+      </c>
+      <c r="F145">
         <f t="shared" si="8"/>
-        <v>1938.3967019876873</v>
-      </c>
-      <c r="F145">
-        <f t="shared" si="7"/>
         <v>2010</v>
       </c>
     </row>
@@ -4129,7 +4220,7 @@
         <v>142</v>
       </c>
       <c r="B146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>303</v>
       </c>
       <c r="C146">
@@ -4137,15 +4228,15 @@
         <v>383.4</v>
       </c>
       <c r="D146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1294</v>
       </c>
       <c r="E146">
+        <f t="shared" si="9"/>
+        <v>1988.3566195373792</v>
+      </c>
+      <c r="F146">
         <f t="shared" si="8"/>
-        <v>1988.3566195373792</v>
-      </c>
-      <c r="F146">
-        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
     </row>
@@ -4154,7 +4245,7 @@
         <v>143</v>
       </c>
       <c r="B147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>305</v>
       </c>
       <c r="C147">
@@ -4162,15 +4253,15 @@
         <v>388.48333333333335</v>
       </c>
       <c r="D147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1301</v>
       </c>
       <c r="E147">
+        <f t="shared" si="9"/>
+        <v>2039.5655350258135</v>
+      </c>
+      <c r="F147">
         <f t="shared" si="8"/>
-        <v>2039.5655350258135</v>
-      </c>
-      <c r="F147">
-        <f t="shared" si="7"/>
         <v>2030</v>
       </c>
     </row>
@@ -4179,7 +4270,7 @@
         <v>144</v>
       </c>
       <c r="B148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>307</v>
       </c>
       <c r="C148">
@@ -4187,15 +4278,15 @@
         <v>393.6</v>
       </c>
       <c r="D148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1308</v>
       </c>
       <c r="E148">
+        <f t="shared" si="9"/>
+        <v>2092.0546734014588</v>
+      </c>
+      <c r="F148">
         <f t="shared" si="8"/>
-        <v>2092.0546734014588</v>
-      </c>
-      <c r="F148">
-        <f t="shared" si="7"/>
         <v>2040</v>
       </c>
     </row>
@@ -4204,7 +4295,7 @@
         <v>145</v>
       </c>
       <c r="B149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>309</v>
       </c>
       <c r="C149">
@@ -4212,15 +4303,15 @@
         <v>398.75</v>
       </c>
       <c r="D149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1315</v>
       </c>
       <c r="E149">
+        <f t="shared" si="9"/>
+        <v>2145.8560402364951</v>
+      </c>
+      <c r="F149">
         <f t="shared" si="8"/>
-        <v>2145.8560402364951</v>
-      </c>
-      <c r="F149">
-        <f t="shared" si="7"/>
         <v>2050</v>
       </c>
     </row>
@@ -4229,7 +4320,7 @@
         <v>146</v>
       </c>
       <c r="B150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>311</v>
       </c>
       <c r="C150">
@@ -4237,15 +4328,15 @@
         <v>403.93333333333334</v>
       </c>
       <c r="D150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1322</v>
       </c>
       <c r="E150">
+        <f t="shared" si="9"/>
+        <v>2201.0024412424073</v>
+      </c>
+      <c r="F150">
         <f t="shared" si="8"/>
-        <v>2201.0024412424073</v>
-      </c>
-      <c r="F150">
-        <f t="shared" si="7"/>
         <v>2060</v>
       </c>
     </row>
@@ -4254,7 +4345,7 @@
         <v>147</v>
       </c>
       <c r="B151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>313</v>
       </c>
       <c r="C151">
@@ -4262,15 +4353,15 @@
         <v>409.15</v>
       </c>
       <c r="D151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1329</v>
       </c>
       <c r="E151">
+        <f t="shared" si="9"/>
+        <v>2257.5275022734672</v>
+      </c>
+      <c r="F151">
         <f t="shared" si="8"/>
-        <v>2257.5275022734672</v>
-      </c>
-      <c r="F151">
-        <f t="shared" si="7"/>
         <v>2070</v>
       </c>
     </row>
@@ -4279,7 +4370,7 @@
         <v>148</v>
       </c>
       <c r="B152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="C152">
@@ -4287,15 +4378,15 @@
         <v>414.4</v>
       </c>
       <c r="D152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1336</v>
       </c>
       <c r="E152">
+        <f t="shared" si="9"/>
+        <v>2315.4656898303037</v>
+      </c>
+      <c r="F152">
         <f t="shared" si="8"/>
-        <v>2315.4656898303037</v>
-      </c>
-      <c r="F152">
-        <f t="shared" si="7"/>
         <v>2080</v>
       </c>
     </row>
@@ -4304,7 +4395,7 @@
         <v>149</v>
       </c>
       <c r="B153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>317</v>
       </c>
       <c r="C153">
@@ -4312,15 +4403,15 @@
         <v>419.68333333333334</v>
       </c>
       <c r="D153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1343</v>
       </c>
       <c r="E153">
+        <f t="shared" si="9"/>
+        <v>2374.852332076061</v>
+      </c>
+      <c r="F153">
         <f t="shared" si="8"/>
-        <v>2374.852332076061</v>
-      </c>
-      <c r="F153">
-        <f t="shared" si="7"/>
         <v>2090</v>
       </c>
     </row>
@@ -4329,7 +4420,7 @@
         <v>150</v>
       </c>
       <c r="B154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>319</v>
       </c>
       <c r="C154">
@@ -4337,7 +4428,7 @@
         <v>425</v>
       </c>
       <c r="D154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1350</v>
       </c>
       <c r="E154">
@@ -4345,7 +4436,7 @@
         <v>2435.7236403779625</v>
       </c>
       <c r="F154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2100</v>
       </c>
     </row>
@@ -4356,10 +4447,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N11" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4415,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
@@ -4463,7 +4798,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -4492,16 +4827,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -4520,9 +4855,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -4536,11 +4869,11 @@
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -4548,7 +4881,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="3">
         <v>16</v>
@@ -4584,7 +4917,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="K11" s="3">
         <v>12</v>
@@ -4614,15 +4947,15 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K13" s="3">
         <v>18</v>
@@ -4650,15 +4983,15 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="3">
         <v>15</v>
@@ -4692,11 +5025,11 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K17" s="3">
         <v>15</v>
@@ -4715,24 +5048,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K19" s="3">
         <v>15</v>
@@ -4758,19 +5091,19 @@
         <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21" s="3">
         <v>25</v>
@@ -4794,12 +5127,12 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -4807,7 +5140,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
@@ -4829,12 +5162,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,7 +5311,7 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -4986,7 +5319,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>80</v>
@@ -4998,7 +5331,7 @@
         <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -5006,7 +5339,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -5018,7 +5351,7 @@
         <v>180</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -5026,19 +5359,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -5046,7 +5379,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -5058,11 +5391,101 @@
         <v>600</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Talents.xlsx
+++ b/Documentation/Talents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <t>Level system</t>
   </si>
@@ -99,9 +99,6 @@
     <t>0/5 Increase energy regeneration for 10/20/30/40/50%</t>
   </si>
   <si>
-    <t>0/5 Decrease arrow cost for 2/4/6/8/10 Energy</t>
-  </si>
-  <si>
     <t>0/5 Increase base energy pool to 140/180/220/260/300</t>
   </si>
   <si>
@@ -367,6 +364,12 @@
   </si>
   <si>
     <t>with more than 50% HP</t>
+  </si>
+  <si>
+    <t>0/5 Decrease arrow cost by 2/4/6/8/10 Energy</t>
+  </si>
+  <si>
+    <t>30% of full energy</t>
   </si>
 </sst>
 </file>
@@ -700,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F154"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,13 +734,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,45 +4467,45 @@
   <sheetData>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
       <c r="J5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
         <v>82</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>84</v>
       </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="s">
-        <v>85</v>
-      </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4520,10 +4523,10 @@
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -4555,10 +4558,10 @@
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -4590,10 +4593,10 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -4611,7 +4614,7 @@
         <v>0.01</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="4">
         <v>0.2</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -4643,7 +4646,7 @@
         <v>0.01</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" s="4">
         <v>0.05</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -4675,7 +4678,7 @@
         <v>0.01</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" s="4">
         <v>0.05</v>
@@ -4693,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4736,10 +4739,10 @@
         <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -4750,14 +4753,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -4767,7 +4770,7 @@
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -4798,11 +4801,11 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -4832,19 +4835,19 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="3">
         <v>14</v>
@@ -4869,19 +4872,19 @@
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="3">
         <v>16</v>
@@ -4905,19 +4908,19 @@
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K11" s="3">
         <v>12</v>
@@ -4943,19 +4946,19 @@
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="3">
         <v>18</v>
@@ -4979,19 +4982,19 @@
         <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="3">
         <v>15</v>
@@ -5017,19 +5020,19 @@
         <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K17" s="3">
         <v>15</v>
@@ -5053,19 +5056,19 @@
         <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19" s="3">
         <v>15</v>
@@ -5091,19 +5094,19 @@
         <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="3">
         <v>25</v>
@@ -5132,15 +5135,15 @@
         <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
@@ -5167,12 +5170,13 @@
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
   </cols>
@@ -5204,8 +5208,8 @@
       <c r="D4">
         <v>100</v>
       </c>
-      <c r="E4">
-        <v>100</v>
+      <c r="E4" t="s">
+        <v>114</v>
       </c>
       <c r="F4">
         <v>600</v>
@@ -5251,7 +5255,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -5259,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -5271,7 +5275,7 @@
         <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -5279,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -5291,7 +5295,7 @@
         <v>120</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -5299,7 +5303,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -5311,7 +5315,7 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -5319,7 +5323,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>80</v>
@@ -5331,7 +5335,7 @@
         <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -5339,7 +5343,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -5351,7 +5355,7 @@
         <v>180</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -5359,7 +5363,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>30</v>
@@ -5371,7 +5375,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -5379,7 +5383,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -5391,7 +5395,7 @@
         <v>600</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5412,7 +5416,7 @@
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -5420,7 +5424,7 @@
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>130</v>
@@ -5428,7 +5432,7 @@
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>160</v>
@@ -5436,7 +5440,7 @@
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -5451,7 +5455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5462,27 +5466,27 @@
   <sheetData>
     <row r="4" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Talents.xlsx
+++ b/Documentation/Talents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4696,7 +4696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Talents.xlsx
+++ b/Documentation/Talents.xlsx
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
